--- a/Datasets/16507139/raw_data/phenotype_mapping.xlsx
+++ b/Datasets/16507139/raw_data/phenotype_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="54040" yWindow="6360" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="6180" yWindow="8400" windowWidth="25620" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -487,43 +487,40 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -547,15 +544,15 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -584,13 +581,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -616,16 +613,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -648,7 +645,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -657,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -680,7 +677,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -692,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -712,7 +709,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -727,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -736,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -744,7 +741,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -762,13 +759,13 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -776,33 +773,65 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
